--- a/AppraisalModel/result_v1.xlsx
+++ b/AppraisalModel/result_v1.xlsx
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37398.53318965517</v>
+        <v>37684.06483477011</v>
       </c>
       <c r="D4" t="n">
-        <v>3098090091.70465</v>
+        <v>3040341952.243202</v>
       </c>
       <c r="E4" t="n">
-        <v>55660.48950291985</v>
+        <v>55139.2958990519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08804028861690384</v>
+        <v>0.08800133743553804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9097480160728281</v>
+        <v>0.911430305483473</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42068.54274407912</v>
+        <v>42038.23239925154</v>
       </c>
       <c r="D5" t="n">
-        <v>3623733584.451062</v>
+        <v>3620181666.692442</v>
       </c>
       <c r="E5" t="n">
-        <v>60197.45496656036</v>
+        <v>60167.9455083223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09595918447791181</v>
+        <v>0.09590665355100092</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8944352373431854</v>
+        <v>0.8945387100037514</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36090.35819127043</v>
+        <v>36315.873254645</v>
       </c>
       <c r="D6" t="n">
-        <v>2571368515.596338</v>
+        <v>2594774768.343608</v>
       </c>
       <c r="E6" t="n">
-        <v>50708.66312176192</v>
+        <v>50938.93175503005</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08336076232504096</v>
+        <v>0.08399076694092683</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9250922009783309</v>
+        <v>0.9244103419347871</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36595.3474137931</v>
+        <v>36047.61770833333</v>
       </c>
       <c r="D7" t="n">
-        <v>2743594018.202761</v>
+        <v>2628842627.122791</v>
       </c>
       <c r="E7" t="n">
-        <v>52379.32815722975</v>
+        <v>51272.24031698626</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08479829044144278</v>
+        <v>0.08385635173400023</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9200750152823102</v>
+        <v>0.9234178944100347</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36393.96912874089</v>
+        <v>36567.52904569706</v>
       </c>
       <c r="D8" t="n">
-        <v>2563293834.85397</v>
+        <v>2586570213.792073</v>
       </c>
       <c r="E8" t="n">
-        <v>50628.9821629269</v>
+        <v>50858.33475244813</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08445092008003215</v>
+        <v>0.08511393507674279</v>
       </c>
       <c r="G8" t="n">
-        <v>0.925327428468496</v>
+        <v>0.9246493528426679</v>
       </c>
     </row>
     <row r="9">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38014.90833774416</v>
+        <v>37911.1126922988</v>
       </c>
       <c r="D9" t="n">
-        <v>2816030083.597961</v>
+        <v>2799271303.368227</v>
       </c>
       <c r="E9" t="n">
-        <v>53066.28009949408</v>
+        <v>52908.1402372851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08840457358649885</v>
+        <v>0.08789426392058787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9179648446880786</v>
+        <v>0.9184530529451538</v>
       </c>
     </row>
   </sheetData>

--- a/AppraisalModel/result_v1.xlsx
+++ b/AppraisalModel/result_v1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37684.06483477011</v>
+        <v>37618.14396551724</v>
       </c>
       <c r="D4" t="n">
-        <v>3040341952.243202</v>
+        <v>3089913073.989251</v>
       </c>
       <c r="E4" t="n">
-        <v>55139.2958990519</v>
+        <v>55586.98655251291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08800133743553804</v>
+        <v>0.08729009795415417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.911430305483473</v>
+        <v>0.9099862247916122</v>
       </c>
     </row>
     <row r="5">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36315.873254645</v>
+        <v>36168.95030211795</v>
       </c>
       <c r="D6" t="n">
-        <v>2594774768.343608</v>
+        <v>2599166603.854975</v>
       </c>
       <c r="E6" t="n">
-        <v>50938.93175503005</v>
+        <v>50982.02235940602</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08399076694092683</v>
+        <v>0.08358521278689497</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9244103419347871</v>
+        <v>0.924282401217684</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36047.61770833333</v>
+        <v>37062.09734195402</v>
       </c>
       <c r="D7" t="n">
-        <v>2628842627.122791</v>
+        <v>2680110166.183692</v>
       </c>
       <c r="E7" t="n">
-        <v>51272.24031698626</v>
+        <v>51769.78043399152</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08385635173400023</v>
+        <v>0.08630710526351418</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234178944100347</v>
+        <v>0.9219243945522679</v>
       </c>
     </row>
     <row r="8">
@@ -663,6 +663,131 @@
       </c>
       <c r="G9" t="n">
         <v>0.9184530529451538</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>svr</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>60740.14110695869</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10585918218.96925</v>
+      </c>
+      <c r="E10" t="n">
+        <v>102887.8915080353</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1278053575408394</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6916164176403654</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>linear regression</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>42043.25310296907</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3232457589.485495</v>
+      </c>
+      <c r="E11" t="n">
+        <v>56854.70595725119</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.103647498527568</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9058336905073703</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>41860.70904594781</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3226322412.150696</v>
+      </c>
+      <c r="E12" t="n">
+        <v>56800.72545444025</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1026566662505165</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9060124173712834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>41807.32829327101</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3250909147.082254</v>
+      </c>
+      <c r="E13" t="n">
+        <v>57016.74444478792</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1025499957121607</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9052961691214968</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ann</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>42609.82058189655</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3349774712.498041</v>
+      </c>
+      <c r="E14" t="n">
+        <v>57877.23829363354</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1046334169413533</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.902416067782692</v>
       </c>
     </row>
   </sheetData>
